--- a/DataFiles/TestData.xlsx
+++ b/DataFiles/TestData.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Testcases</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>DataThree</t>
+  </si>
+  <si>
+    <t>TestCase</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,16 +464,16 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -493,16 +493,16 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -522,16 +522,16 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -551,16 +551,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -580,16 +580,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>

--- a/DataFiles/TestData.xlsx
+++ b/DataFiles/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Login</t>
   </si>
@@ -30,12 +30,6 @@
     <t>Delete Profile</t>
   </si>
   <si>
-    <t>logind1</t>
-  </si>
-  <si>
-    <t>logind2</t>
-  </si>
-  <si>
     <t>logind3</t>
   </si>
   <si>
@@ -76,6 +70,12 @@
   </si>
   <si>
     <t>TestCase</t>
+  </si>
+  <si>
+    <t>Virat</t>
+  </si>
+  <si>
+    <t>Kohli</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,16 +464,16 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -496,13 +496,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -525,13 +525,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -554,13 +554,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -583,13 +583,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
